--- a/assets/checklist/Kpi.xlsx
+++ b/assets/checklist/Kpi.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Worktable\Izmaylov\Staff\Python\Autogui\K4Yauto2.0\assets\checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evrope\Desktop\Izmaylov\staff\programming\K4Yauto\assets\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Организация</t>
   </si>
@@ -51,19 +51,67 @@
     <t>Номенклатура</t>
   </si>
   <si>
-    <t>Магазин - Домодедово</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Измайлов Глеб Александрович</t>
+  </si>
+  <si>
+    <t>Магазин - Европейский</t>
+  </si>
+  <si>
+    <t>Добранский Павел</t>
+  </si>
+  <si>
+    <t>LOST MARY - Арбузный лед (2% 5000 затяжек)</t>
+  </si>
+  <si>
+    <t>LOST MARY - Красный Яблочный лед (2% 5000 затяжек)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONSTERVAPOR SALT - COLA KONG (кола с лимоном) 20mg 30ml </t>
+  </si>
+  <si>
+    <t>MustHave - Melonade 125 гр.</t>
+  </si>
+  <si>
+    <t>Puffmi - Strawberry Kiwi - Клубника и Киви (2% 3500 затяжек)</t>
+  </si>
+  <si>
+    <t>SOAK S - Sakura Fruit Tea (2% 2500 затяжек)</t>
+  </si>
+  <si>
+    <t>Жидкость ANTIDOTE  - APPLE KIWI, 30 мл 20 мг  salt</t>
+  </si>
+  <si>
+    <t>Жидкость ANTIDOTE  - GRAPE ENERGY, 30 мл 20 мл salt</t>
+  </si>
+  <si>
+    <t>Жидкость HUSKY DOUBLE ICE SALT Strong - Frosty Palm 20мг (30мл)</t>
+  </si>
+  <si>
+    <t>Жидкость HUSKY MALAYSIAN SERIES SALT - SHAKE PEARS 20 мг 30 мл</t>
+  </si>
+  <si>
+    <t>Жидкость HUSKY MS SALT - JUICY GRAPES 20мг (30мл)</t>
+  </si>
+  <si>
+    <t>Табак "Дарк Сайд" Кор (Вайлдберри) 30 г</t>
+  </si>
+  <si>
+    <t>Эл.одноразовая сигарета  Elf Bar Lux 2000 (20 мг) - Красный Мохито</t>
+  </si>
+  <si>
+    <t>Эл.одноразовая сигарета  Elf Bar NC 1800 (20 мг) - Киви Маракуя Гуава</t>
+  </si>
+  <si>
+    <t>Эл.одноразовая сигарета  Elf Bar NC 1800 (20 мг) - Клубничное Мороженое</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -239,9 +287,13 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -255,7 +307,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,179 +588,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K7"/>
+      <selection sqref="A1:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1">
-        <v>441480.17</v>
+        <v>234988.84</v>
       </c>
       <c r="F4" s="1">
-        <v>267432.7</v>
+        <v>145217.71</v>
       </c>
       <c r="G4" s="2">
-        <v>60.58</v>
+        <v>61.8</v>
       </c>
       <c r="H4" s="1">
-        <v>746745</v>
+        <v>620000</v>
       </c>
       <c r="I4" s="2">
-        <v>59.12</v>
+        <v>37.9</v>
       </c>
       <c r="J4" s="1">
-        <v>1050</v>
+        <v>1212</v>
       </c>
       <c r="K4" s="1">
-        <v>1132</v>
+        <v>1477.92</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="8">
-        <v>130305.69</v>
+        <v>9491</v>
       </c>
       <c r="F7" s="8">
-        <v>98415.87</v>
+        <v>4866</v>
       </c>
       <c r="G7" s="9">
-        <v>75.53</v>
-      </c>
-      <c r="H7" s="11" t="s">
+        <v>51.27</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8">
+        <v>1212</v>
+      </c>
+      <c r="K7" s="9">
+        <v>790.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12">
+        <v>790.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12">
+        <v>990</v>
+      </c>
+      <c r="F9" s="12">
+        <v>990</v>
+      </c>
+      <c r="G9" s="12">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12">
+        <v>990</v>
+      </c>
+      <c r="F10" s="12">
+        <v>990</v>
+      </c>
+      <c r="G10" s="12">
+        <v>100</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12">
+        <v>599</v>
+      </c>
+      <c r="F11" s="12">
+        <v>599</v>
+      </c>
+      <c r="G11" s="12">
+        <v>100</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12">
+        <v>845</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12">
+        <v>990</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12">
+        <v>700</v>
+      </c>
+      <c r="F14" s="12">
+        <v>700</v>
+      </c>
+      <c r="G14" s="12">
+        <v>100</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12">
+        <v>449</v>
+      </c>
+      <c r="F15" s="12">
+        <v>449</v>
+      </c>
+      <c r="G15" s="12">
+        <v>100</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12">
+        <v>449</v>
+      </c>
+      <c r="F16" s="12">
+        <v>449</v>
+      </c>
+      <c r="G16" s="12">
+        <v>100</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12">
+        <v>220</v>
+      </c>
+      <c r="F17" s="12">
+        <v>220</v>
+      </c>
+      <c r="G17" s="12">
+        <v>100</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12">
+        <v>249</v>
+      </c>
+      <c r="F18" s="12">
+        <v>249</v>
+      </c>
+      <c r="G18" s="12">
+        <v>100</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12">
+        <v>220</v>
+      </c>
+      <c r="F19" s="12">
+        <v>220</v>
+      </c>
+      <c r="G19" s="12">
+        <v>100</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12">
+        <v>205</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12">
+        <v>895</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12">
+        <v>845</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12">
+        <v>845</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="8">
-        <v>1050</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1386.23</v>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="8">
+        <v>38156.99</v>
+      </c>
+      <c r="F24" s="8">
+        <v>18219.990000000002</v>
+      </c>
+      <c r="G24" s="9">
+        <v>47.75</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8">
+        <v>1165</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1589.87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="31">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:K3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
